--- a/data/trans_dic/P40_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 22,39</t>
+          <t>6,06; 32,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 23,81</t>
+          <t>2,93; 24,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,61</t>
+          <t>0,0; 14,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,4</t>
+          <t>0,0; 26,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,62; 33,24</t>
+          <t>8,79; 39,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 28,09</t>
+          <t>6,4; 28,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 18,15</t>
+          <t>6,53; 32,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 21,77</t>
+          <t>6,74; 29,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 24,48</t>
+          <t>7,29; 29,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 20,21</t>
+          <t>3,57; 21,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,2</t>
+          <t>8,15; 24,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 15,21</t>
+          <t>6,81; 23,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 19,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 23,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 25,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 55,86</t>
+          <t>12,76; 66,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 44,65</t>
+          <t>8,4; 57,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 28,22</t>
+          <t>5,46; 27,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,27</t>
+          <t>1,43; 18,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,98; 45,84</t>
+          <t>1,03; 17,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,8; 45,14</t>
+          <t>16,79; 40,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 36,1</t>
+          <t>24,69; 51,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,94; 41,35</t>
+          <t>11,47; 33,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 44,48</t>
+          <t>16,84; 41,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 40,79</t>
+          <t>8,23; 31,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 28,02</t>
+          <t>19,29; 48,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 25,09</t>
+          <t>20,01; 47,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 26,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 25,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 19,4</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 27,63</t>
+          <t>6,88; 26,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 43,4</t>
+          <t>5,42; 24,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 17,88</t>
+          <t>5,69; 25,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 25,49</t>
+          <t>4,69; 26,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 30,24</t>
+          <t>1,66; 16,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 28,53</t>
+          <t>11,99; 27,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 17,9</t>
+          <t>11,85; 27,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 22,47</t>
+          <t>6,27; 17,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,51</t>
+          <t>10,03; 23,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 30,48</t>
+          <t>12,85; 29,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,77</t>
+          <t>11,88; 24,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 20,58</t>
+          <t>11,15; 23,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 18,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 21,71</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 21,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 18,85</t>
+          <t>5,22; 21,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,93</t>
+          <t>3,89; 17,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,75</t>
+          <t>1,15; 10,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,4</t>
+          <t>1,15; 10,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,79; 29,51</t>
+          <t>1,52; 12,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 26,87</t>
+          <t>14,95; 30,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 21,85</t>
+          <t>11,19; 25,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 22,42</t>
+          <t>9,43; 23,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,32</t>
+          <t>10,42; 24,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 19,79</t>
+          <t>12,19; 27,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,11</t>
+          <t>12,53; 23,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 15,31</t>
+          <t>9,48; 19,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 15,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 15,84</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 17,96</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 29,55</t>
+          <t>12,22; 37,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 32,59</t>
+          <t>11,43; 39,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 27,99</t>
+          <t>7,98; 39,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 25,38</t>
+          <t>8,02; 34,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,84; 26,68</t>
+          <t>2,83; 16,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 27,69</t>
+          <t>16,55; 40,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 24,35</t>
+          <t>16,66; 41,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 25,04</t>
+          <t>9,51; 30,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,19; 24,88</t>
+          <t>9,63; 31,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 26,18</t>
+          <t>13,12; 38,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 21,83</t>
+          <t>17,11; 35,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 21,78</t>
+          <t>16,59; 38,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,04; 33,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 29,53</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 24,62</t>
         </is>
       </c>
     </row>
@@ -1376,40 +1551,55 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,36</t>
+          <t>0,0; 12,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 5,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 4,85</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,2</t>
+          <t>11,87; 26,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,28</t>
+          <t>9,67; 23,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,21</t>
+          <t>6,1; 14,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,15</t>
+          <t>5,2; 13,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,99</t>
+          <t>4,81; 11,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,32</t>
+          <t>16,32; 24,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,05</t>
+          <t>15,99; 24,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,97</t>
+          <t>10,77; 17,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,93</t>
+          <t>12,95; 20,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,06</t>
+          <t>11,78; 18,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,79</t>
+          <t>15,36; 22,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,89</t>
+          <t>13,98; 20,92</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 15,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 15,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 14,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13589</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10351</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11543</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29589</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17291</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20806</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19563</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20423</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13965</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30880</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31157</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23433</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31966</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>43554</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5222; 27963</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3134; 26362</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15669</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 34028</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12227; 55042</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7521; 33374</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8751; 43513</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8097; 35768</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8931; 35756</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5197; 30548</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16606; 50549</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16415; 56525</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11756; 43968</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17180; 58534</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21880; 73627</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46920</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43670</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19592</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14434</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37638</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59806</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35638</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29052</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84558</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>103476</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>46598</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>45014</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>43487</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17464; 90827</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14173; 96756</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7823; 38722</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2209; 28143</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2339; 40180</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22386; 54488</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40756; 85292</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14527; 43036</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21266; 52598</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13356; 50525</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52108; 132291</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66804; 159570</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>28202; 70292</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25842; 72240</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20329; 75688</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20402</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20691</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18768</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18616</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40856</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48719</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23213</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32072</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47435</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61258</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69410</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>41981</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>50687</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>58891</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9355; 35763</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8499; 37982</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7644; 34434</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6449; 36112</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2992; 29164</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25822; 59145</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31297; 71634</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13125; 36258</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20110; 48002</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30518; 70009</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>41721; 84599</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46929; 96909</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>26966; 64145</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>33648; 73403</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>40169; 90731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19121</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17161</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6011</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5872</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10354</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42550</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39253</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29469</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29812</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40551</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61671</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56414</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>35480</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>35684</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>50904</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8540; 34587</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7266; 32592</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1859; 16256</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1792; 15843</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3026; 25087</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28599; 59013</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24430; 56331</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17538; 44232</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17970; 42794</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25672; 58202</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>44455; 82316</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38390; 79265</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>22380; 53548</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>22645; 52071</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>35221; 73555</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30336</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33737</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23811</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20578</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28453</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32349</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17236</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17427</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>33290</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58789</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66087</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>41047</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>38005</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>46311</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16973; 51392</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17995; 62483</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10545; 52684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9709; 41573</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4384; 25513</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17121; 42270</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19356; 48136</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8918; 29041</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8920; 29335</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17982; 52594</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41462; 85957</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>45391; 103978</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>24934; 76098</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>23154; 63124</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>28189; 71815</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13271</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15297</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10515</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11971</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>130368</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>125611</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>72053</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>65986</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>78853</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>169364</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>203851</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>116486</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>135372</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>164293</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>299732</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>329463</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>188539</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>201357</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>243146</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>89213; 197298</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>85639; 206281</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>46645; 111336</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>40927; 106154</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>49988; 121209</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141632; 212252</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>165506; 250666</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>90616; 146712</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>106825; 170459</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>129654; 206378</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>248717; 366386</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>268567; 402025</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>150631; 240696</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>160776; 251277</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>198819; 305431</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>